--- a/Marketing/iu.roomme.xlsx
+++ b/Marketing/iu.roomme.xlsx
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">

--- a/Marketing/iu.roomme.xlsx
+++ b/Marketing/iu.roomme.xlsx
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">

--- a/Marketing/iu.roomme.xlsx
+++ b/Marketing/iu.roomme.xlsx
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">

--- a/Marketing/iu.roomme.xlsx
+++ b/Marketing/iu.roomme.xlsx
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">

--- a/Marketing/iu.roomme.xlsx
+++ b/Marketing/iu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zach_bold</t>
+          <t>annacunningham__</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>logan.reddell</t>
+          <t>skylarlondo</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cecelia.mann</t>
+          <t>carolinekucharczyk</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>owen_fries</t>
+          <t>alexzimmerrr</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jadeleberr</t>
+          <t>h.s.myers</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mandibielanski</t>
+          <t>jack.sparks16</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>amareshr</t>
+          <t>ela.with.1.l</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nickvoneper</t>
+          <t>_autumn_richards</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sriyatellakula</t>
+          <t>manasim04</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>marcas37</t>
+          <t>addison.salcedo</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>abbylasseter</t>
+          <t>mayaclott</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gregprehn</t>
+          <t>akash.gandhi9</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>charlisecannady</t>
+          <t>garrett_hall23</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mattydisilvestro</t>
+          <t>ashley_crowder</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>joymfries</t>
+          <t>ben_berlinski</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>katie.1207</t>
+          <t>iamtenney</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>isygoldfarb</t>
+          <t>tis_rishi</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>__emily__h__</t>
+          <t>wyatt.chance1</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>spookree_</t>
+          <t>cheskasanpedro</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>k.r.i.s.h.n.a_s.h.a.h</t>
+          <t>camden.mcelligott</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mr.d1_star</t>
+          <t>rohan_nalluri</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kinya6622</t>
+          <t>gregprehn</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>chloe.marie214</t>
+          <t>meara_farrell</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>macy.ferrelll</t>
+          <t>marija.devrnja</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>unanimousspamz</t>
+          <t>ayrakanji</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lotsoflovepad</t>
+          <t>asherweisberg</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>anabelle.mcdonald</t>
+          <t>svyntax</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>wyatt.chance1</t>
+          <t>meganroskoph</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lindseypinsky</t>
+          <t>haadis_amin</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>_suryass</t>
+          <t>ashley.ssmith</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reesenehlsen</t>
+          <t>jacoblauri_</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aryan_tally</t>
+          <t>sriyatellakula</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jtmc10</t>
+          <t>getzy2003</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>corinnesmith._</t>
+          <t>saanviiagarwal</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lauriegley</t>
+          <t>abbylasseter</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jillian.mole</t>
+          <t>angel_disney101</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>isabellemonger_</t>
+          <t>nate_schecter</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ldevenney05</t>
+          <t>shreyawunnava</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ashley.ssmith</t>
+          <t>olivia.evansss</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>benglazerr</t>
+          <t>jonahhara</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>miahanleyyy</t>
+          <t>elliesuvar</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nishta.murugan</t>
+          <t>elizabeth.brill</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>luke_schutt30</t>
+          <t>ashley.golden_</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>abbi.renee</t>
+          <t>carlicary_</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>wubiehrman</t>
+          <t>sarparrish</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bestlifedr</t>
+          <t>dennisgradushy</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kaylin.burke</t>
+          <t>kip_4761</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>btownanddown</t>
+          <t>meganmull_</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>aarya._.295</t>
+          <t>_meganmahon</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>makayla_burkhart</t>
+          <t>alicia.shank.7</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>abrenner.61</t>
+          <t>crystalveliya</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>saltindiana</t>
+          <t>laurenfolzz</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>beccagordonn</t>
+          <t>stephanie_ramirez.7</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mya.stiener</t>
+          <t>stella_smith017</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>svyntax</t>
+          <t>a.bbyweber</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>zackallas</t>
+          <t>maddygearyy</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>juliannabanfe</t>
+          <t>jhannon19</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>prestigetelehealth</t>
+          <t>imjaymelee</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>owensizzle</t>
+          <t>rachael_schrage</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>a_hollar</t>
+          <t>oliviagayler</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>daniserra1</t>
+          <t>acejinulee</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>hollandwestt</t>
+          <t>grantgala</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>chaselschwartz</t>
+          <t>cadyannem</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>emmannwilder</t>
+          <t>carlyyyweber</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sarah.butterklee</t>
+          <t>rc_glover</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>rileys_30</t>
+          <t>vedanttuli</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>katherine_stalmah</t>
+          <t>lara.petrina</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>khushikothari04</t>
+          <t>avamindichh</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>anett_vaysberg</t>
+          <t>anu._.u</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mounikagadela</t>
+          <t>alliepark13</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>kate_isabe1</t>
+          <t>ashleebelcher</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>alyssa.inez674</t>
+          <t>carah.mckinney</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mayamalecki</t>
+          <t>elyseebuttryy</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lindsaykosmak</t>
+          <t>alexrupprecht28</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rob.2.0.0.5</t>
+          <t>jeremy_boze</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>elizabeth.brill</t>
+          <t>ankitabodas</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>charity_beal11</t>
+          <t>vikramkacholiya</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>nicserway</t>
+          <t>lilli.coffel</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>jennifersauld</t>
+          <t>mason_schutte</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>abontrager06</t>
+          <t>_.shrey.patel._</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>maddygearyy</t>
+          <t>keirapoynter</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>helena.cecile</t>
+          <t>ananyaa295</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mark_avila3</t>
+          <t>rowynkean</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ethankost200</t>
+          <t>madison_smith37</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>luigidalca</t>
+          <t>self.ella</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hilaryadamss</t>
+          <t>melodyalara02</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>audreyjdorsey</t>
+          <t>bahraam.mirza</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>maya.triv</t>
+          <t>hannah.dolence</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>storage_scholars_indiana</t>
+          <t>ford.miles11</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>evanharlann</t>
+          <t>tierrasharee___</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>wepatrolinjeeps</t>
+          <t>julia.couzens</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>nicolasjenciso</t>
+          <t>alecviolin</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mati.mart1n</t>
+          <t>fatehpuriachirag</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jackie_morandaa</t>
+          <t>jessssrubin</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>marenstamm_</t>
+          <t>tkeaffaber_</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>kendalleverse</t>
+          <t>thomas.wiedenhoeft</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>fayesinotte</t>
+          <t>luigidalca</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>danny.gruensfelder</t>
+          <t>jadechapall</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mayap_24</t>
+          <t>tdmiller3</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>eviehanlinn</t>
+          <t>jakekinker</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>london_reese</t>
+          <t>katemcdonalldd</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>noahmatos3</t>
+          <t>sszanti</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ashley.robinett1</t>
+          <t>will.boyland</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>santinahahner</t>
+          <t>e.houser17</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>abbybrock_</t>
+          <t>kaylarichman_</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sophiaa.romeroo</t>
+          <t>_ethansmith1</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>collin_dickinson_</t>
+          <t>samantham.20</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mia.ruse</t>
+          <t>drew_gassman_</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>gracecummings2250</t>
+          <t>prawns_05</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>leslie.margolis.1</t>
+          <t>juday.lexi</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>hayleyarick</t>
+          <t>maddie_butterly</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sam_levine_32</t>
+          <t>lauren.janning</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>varun_kommareddy</t>
+          <t>rohanvc1</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>lilian_abbett1</t>
+          <t>kyliemoore._</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>joshmleigh13</t>
+          <t>07kashvi_g</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>camden.mcelligott</t>
+          <t>_mayaziegler</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>laurynreifel</t>
+          <t>estormss</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>kimbaker1234</t>
+          <t>amayaameling</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vedanttuli</t>
+          <t>nataliapolena</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ryan._sharp</t>
+          <t>alyssaapatel</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>riley_strcic</t>
+          <t>olivia.acers</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>juliana.woods_</t>
+          <t>riley_ferris22</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>armaan__duggal</t>
+          <t>kirarudersdorf</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>emma__faber</t>
+          <t>meera_patki</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>_chhayadoshi</t>
+          <t>hannah.f28</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jjulespedersen</t>
+          <t>tommy.b.skis</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ciara.yilla</t>
+          <t>graceschuetter</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>mason_965</t>
+          <t>_sabrinaford_</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tristancaudill_</t>
+          <t>sophlinden</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mollybohling</t>
+          <t>briellebercy</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,2107 +1748,2107 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>carleajanee</t>
+          <t>victoriamolokov</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ramiyahtb</t>
+          <t>priya.sharmaaa</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>kateemkow</t>
+          <t>kaci.laufer</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>lauren.golden04</t>
+          <t>gra.cemillerr</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>madelynhackman</t>
+          <t>broom.megan</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>drewblackmerr</t>
+          <t>abbyroder</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>alexisgallardo05</t>
+          <t>nishta.murugan</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>tyler_yaggy</t>
+          <t>keely.dekock</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>juliuskim55</t>
+          <t>kaylee_arsenault_</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>chaselobosco</t>
+          <t>gargryann_</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>katieewarrdd</t>
+          <t>t.alexander123</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>william_brogan1</t>
+          <t>_evelyn_anne</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>arionkyle</t>
+          <t>christianpfeifer_</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>soph.xma</t>
+          <t>ashley.crystal_</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>kakou.so</t>
+          <t>imuhlie</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lexiiicunningham</t>
+          <t>sarahgarwood632</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cheskasanpedro</t>
+          <t>arionkyle</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>laurenstrahota</t>
+          <t>_michael_hutchins</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jeremy_boze</t>
+          <t>mia.phillipsss</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>carlyyyweber</t>
+          <t>erindrugova</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ksorcher</t>
+          <t>tijana.farkic</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>self.ella</t>
+          <t>nicoletuchh</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>michaelatibbils</t>
+          <t>_arriianaaaa</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>abbiekhal</t>
+          <t>_emmagrant67</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>danielgeltrude</t>
+          <t>itsmueezmy</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ashleyhudson34</t>
+          <t>chasefrieman</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>_sarahromeo</t>
+          <t>rdweiss04</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>carolinekucharczyk</t>
+          <t>dylan_denlow</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>brookelynnvermillion</t>
+          <t>victorbucalo</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ayvaml</t>
+          <t>jordanelliot7353</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jaubergan</t>
+          <t>emmaa.ruschee</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>liv.schramm</t>
+          <t>tristancaudill_</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>greyson.flora</t>
+          <t>naman.badkul</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>jen__rooney</t>
+          <t>katewallaccee</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ejdiener</t>
+          <t>arushivohra_</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>gordon.ra</t>
+          <t>tay.ralstonn</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>priya.sharmaaa</t>
+          <t>skylerstambleck16</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>lilli.coffel</t>
+          <t>gracecummings2250</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>elladepase</t>
+          <t>hosinski.teddy</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>jade.yount</t>
+          <t>kaylin.burke</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rashutksharma</t>
+          <t>sydney.schena</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>shelbyschultz91</t>
+          <t>_kylekinser</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>kiersten.reed</t>
+          <t>francescajlabella</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>jackpinsel1</t>
+          <t>_lydia.elizabeth_</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>olivia.acers</t>
+          <t>kavya_kaushik12</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>o_sandefur</t>
+          <t>rileytoomeyyy</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>izzyglonek</t>
+          <t>ava.smith04</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>julialahsin</t>
+          <t>kennedy.russell</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>sophiaparrottt</t>
+          <t>vmull80</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>raegan.vickers</t>
+          <t>_jacktemple</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ikrammamund</t>
+          <t>caseyburns8</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>brynn.22</t>
+          <t>nitya0274</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mackenziejones._</t>
+          <t>briannabirmy</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>posse.usc</t>
+          <t>willschlamme</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ninaaverner</t>
+          <t>brynna.13_</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>tommy_richardson__</t>
+          <t>audreylcondon</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>anniewalsh0817</t>
+          <t>jack_simons18</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>mia.phillipsss</t>
+          <t>matt_anesi55</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>tyler_alexander38</t>
+          <t>malloryneale</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>gavinsommerr</t>
+          <t>anniewittwer</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>hhenryadams</t>
+          <t>jordyn_josephy</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>_lydia.elizabeth_</t>
+          <t>tristan._.belcher</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>sofieb28</t>
+          <t>mollie_nisim</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>leonoralanders</t>
+          <t>_sarahromeo</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>bahraam.mirza</t>
+          <t>lucyy_pahl</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>rudenbella</t>
+          <t>oliviajjacobs</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>averie.victoria</t>
+          <t>shreyanarayan_</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>aaveryschlesinger</t>
+          <t>2ndmartian05</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>nikki.nadler</t>
+          <t>talen.zitomer</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_emmajohnson2</t>
+          <t>maddie_wiederkehr</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>the_anna_hunt</t>
+          <t>kiiara_leiva</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>josie.rolfes</t>
+          <t>stoecs97</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>harper.larkin</t>
+          <t>henna.patheja</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>keely.dekock</t>
+          <t>danny.gruensfelder</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>madison.scheidler</t>
+          <t>mayap_24</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>wesleyhuff19</t>
+          <t>elana.sunshine</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>alondraeh11</t>
+          <t>omarzaneer</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>noradoyle_</t>
+          <t>alyssa.inez674</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>allaragasdorf</t>
+          <t>alexisgallardo05</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>_liyengafred</t>
+          <t>michellevaaasquez_</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>henry23miller</t>
+          <t>laurenkmilller</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>c_klob7</t>
+          <t>jason_nem14</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>chloe.anne04</t>
+          <t>_maggie_menard_</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>jadenkseth</t>
+          <t>swarajdhadkar</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>nataliieanderson</t>
+          <t>conetta.laura</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>karrenrodrigus</t>
+          <t>avadziubek_</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>_corinnegillette</t>
+          <t>bradlittle23</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>thomas.wiedenhoeft</t>
+          <t>shrreyaa__</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_nate_que</t>
+          <t>hayleyarick</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ggarrett14</t>
+          <t>royal.varsity</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>brooklyn_fordd</t>
+          <t>delaney.knoebel</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>averynagel</t>
+          <t>emmabrownn5</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sawwiiii</t>
+          <t>stella.swenson</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>bcohen17</t>
+          <t>evelynlauerman</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>forrrestbacon</t>
+          <t>katieewarrdd</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>tristan._.belcher</t>
+          <t>abbierburns</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>breexavier</t>
+          <t>jack_kelley3</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>fizztulane</t>
+          <t>russell.steinbok</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>_jacktemple</t>
+          <t>shaqtini</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>nick_thornburg6</t>
+          <t>ellaoaten</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>kylie.9186</t>
+          <t>gavinsommerr</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>_.snehaghosh._</t>
+          <t>gabbykraft_</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>zach_hardy84</t>
+          <t>rileywickens</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_jack.ball_</t>
+          <t>lemgruberalexandre</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>hanna_hageboeck</t>
+          <t>josealvarez8790</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>brooke_corneil_7</t>
+          <t>mackenziejones._</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>saharshcharania</t>
+          <t>kirthanamarepalli</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sn.ngouker45</t>
+          <t>raniyouness</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>paytonhejza</t>
+          <t>crabbie18</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>cannon.thiessen</t>
+          <t>reesenehlsen</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>cathyhorwege</t>
+          <t>melinamoreno_</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_autumn_richards</t>
+          <t>elodie_jonesyy</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>danelii.a</t>
+          <t>danielgeltrude</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>brooklyn.gephardt</t>
+          <t>laurenjax.21</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>abby._clark</t>
+          <t>peyton_willits_</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>jimmy_reim</t>
+          <t>ryleeeburton</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ashley.golden_</t>
+          <t>brutus8542</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>s.ali1003__</t>
+          <t>val.ihoshyna</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ela.with.1.l</t>
+          <t>sammilovall</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>arushivohra_</t>
+          <t>katiesteinn_</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>jc_the_plumber</t>
+          <t>sebastian.3305</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>allie_halm</t>
+          <t>rob.2.0.0.5</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>hannah.dolence</t>
+          <t>jadeleberr</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>aliviamac000</t>
+          <t>rylynwalters_</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>tanisha_archiv</t>
+          <t>nathan.dubinsky</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ethaniel_brown</t>
+          <t>reya.aggarwal</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>owenhurd1</t>
+          <t>kellan_roussel</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>cadyannem</t>
+          <t>christineblodg</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>jadaa_marieeeee</t>
+          <t>kimberly102914</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>_.mariah._e</t>
+          <t>jackgriff5</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sophlinden</t>
+          <t>clare3regan</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>jhovany3637</t>
+          <t>ameexpatel</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>abby.williams35</t>
+          <t>haf3rt3p3n</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>marinakis.pamela</t>
+          <t>xoyazminnn</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>richards_matthew</t>
+          <t>nithyamooli</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>joeriweyenberg</t>
+          <t>iutrumpets</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>laurenakey</t>
+          <t>catiegivand</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>brookebowler24</t>
+          <t>a.stergar</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>daniel_figueroa2005</t>
+          <t>andrea.mcgrath</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>teagon_lehti</t>
+          <t>samantha.schleeter</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>sofiaberkmann</t>
+          <t>_mariaserrato_</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>brynnebrosmer</t>
+          <t>giannaalucia</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>billyshaoer</t>
+          <t>isygoldfarb</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jmoz3415</t>
+          <t>mickeyc1028</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>bri.ful</t>
+          <t>ryannelacy</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>maryoboyle51</t>
+          <t>erika.armellino</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ryderfreitag</t>
+          <t>jon.p.w</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>dylansussman9</t>
+          <t>loganswalker</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>adele_dkr</t>
+          <t>emilylelliott</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>prawns_05</t>
+          <t>d_weinbaum13</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>stephanie_ramirez.7</t>
+          <t>nick.tabscott</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>loranlicht</t>
+          <t>aynsley.nance</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>aathavi.e</t>
+          <t>kendalleverse</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>coriecarrigan</t>
+          <t>alexis.friedman00</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>nicoletuchh</t>
+          <t>jadaa_marieeeee</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sophia.beechh</t>
+          <t>ginazirille</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>avadziubek_</t>
+          <t>khushimadhvanii</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>khushimadhvanii</t>
+          <t>addie_hickey11</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>elise_grinsy</t>
+          <t>bryce.lesinski</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>kirthanamarepalli</t>
+          <t>ryanwheeler19</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>natjedwa1225</t>
+          <t>jtmc10</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sofiaa.moraa</t>
+          <t>brooke_corneil_7</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>benlegrandd</t>
+          <t>noradoyle_</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>rdweiss04</t>
+          <t>nicholas_hanas20</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2ndmartian05</t>
+          <t>__emily__h__</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>nitya0274</t>
+          <t>alondraeh11</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>emilylelliott</t>
+          <t>miahanleyyy</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cam.osmith</t>
+          <t>kavyamehta021</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>iamtenney</t>
+          <t>eshanyabhutani</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>jerry.mathew.3597</t>
+          <t>ssanya.11</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>alicia.jxnes</t>
+          <t>daniserra1</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>lara.petrina</t>
+          <t>macy.ferrelll</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>gage.larson</t>
+          <t>rileys_30</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>giabusse</t>
+          <t>brigidmccaffrey</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kevinzhangyuandi</t>
+          <t>juliana.woods_</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sophmharris</t>
+          <t>ggdowik</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>tayloramoyer</t>
+          <t>aubrynmiddleton</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>mackensie_allen</t>
+          <t>liv_schiff</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>meganroskoph</t>
+          <t>ellie.fawn</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>andreaboukay</t>
+          <t>lilyshemtov_</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>addison.noel_</t>
+          <t>kara_roudebush</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>an.shul4980</t>
+          <t>judeblazowski</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>haven_lindley</t>
+          <t>emzoglman</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>laurenjax.21</t>
+          <t>mauracgg34</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>gabbi.goulet</t>
+          <t>demi_.heinz</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>mstamatovich</t>
+          <t>divbani_sabharwal</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>tay.ralstonn</t>
+          <t>brogan9656</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>kimcp123</t>
+          <t>emma.rasines</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>sarparrish</t>
+          <t>davidslyu</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>gabby.paredess</t>
+          <t>shraavya.pydisetti</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>reeti.rana.9</t>
+          <t>_kenziecline</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>wilson.bentley1</t>
+          <t>ellaa.owens</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>garrett_hall23</t>
+          <t>ben.marke</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>emily_miller_indiana</t>
+          <t>zach_bold</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ginazirille</t>
+          <t>candidshotsbydel</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>katris.a</t>
+          <t>harlee_mcc</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>zoe.fledderman</t>
+          <t>lauren_jade_05</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>nathan.dubinsky</t>
+          <t>leah_.keys</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ryanthous</t>
+          <t>jennaaa.miller</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>val.ihoshyna</t>
+          <t>allie_halm</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>will.boyland</t>
+          <t>kanishks1ngh</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>armanhasami2021</t>
+          <t>ajware_</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ssaraodonnell</t>
+          <t>diego_villarreal_d</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>gsk_24</t>
+          <t>_olivianelsonn</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>izze_smizzzy</t>
+          <t>zberg5</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>devon_connelly</t>
+          <t>mya.stiener</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>sophiedanvers22</t>
+          <t>mandaadavis</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>willgreen14</t>
+          <t>katie.1207</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>emilynhartman</t>
+          <t>_elliemcfadden</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>tonymartin1nonly</t>
+          <t>hesscarmack</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ava.smith04</t>
+          <t>riyasn.06</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>oliviagayler</t>
+          <t>amareshr</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>willschlamme</t>
+          <t>ally__carroll</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>cohallberg</t>
+          <t>mia_roe18</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>maddie_butterly</t>
+          <t>sudarshan.k_</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>aaris.moore</t>
+          <t>vasvisaboo</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>574_christian.j</t>
+          <t>queenx_fatima</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>katemcateee</t>
+          <t>charliemoscone</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>jacoblauri_</t>
+          <t>arisberger</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>lallygene</t>
+          <t>paulinaleigh23</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>kip_4761</t>
+          <t>elladepase</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>kara_roudebush</t>
+          <t>ninaaverner</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>aczimmer.2</t>
+          <t>zachkive</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>samantharobledo_</t>
+          <t>michelledevine2</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cassie.r.jackson</t>
+          <t>sonny.katzel</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>oliviasullivvan</t>
+          <t>hannahlchoi</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>woogiemoore</t>
+          <t>ava.mendelsohn2010</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>katherine_.moon</t>
+          <t>ellasinawi</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>manasim04</t>
+          <t>lbwehr</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>brianna.bedrosian</t>
+          <t>laney.79</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>chasefrieman</t>
+          <t>ashleyhudson34</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>estormss</t>
+          <t>10_.sam._10</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ecomvinz</t>
+          <t>chloe__epstein</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>kaylee_arsenault_</t>
+          <t>ryanbrown.7</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>teagonohlwein</t>
+          <t>_lucy.little_</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>meganrakers</t>
+          <t>juliannabanfe</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>skylerstambleck16</t>
+          <t>mark_avila3</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>alexzimmerrr</t>
+          <t>sofieb28</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>kennedymctigue</t>
+          <t>juanhernandez.xy</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>avamccormick</t>
+          <t>david_ho11</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>anu._.u</t>
+          <t>jake_castaldo10</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>mayleecardinal</t>
+          <t>lindsaykosmak</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>kate_daudy</t>
+          <t>ryanthous</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>chung3846lgg</t>
+          <t>kimbaker1234</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>sadiekohlman_</t>
+          <t>suhaani_agarwal</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>nataliemauerrr</t>
+          <t>ncontractor5</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>omarzaneer</t>
+          <t>_suryass</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>_sabrinaford_</t>
+          <t>linden.boycks</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>im.brayden</t>
+          <t>william_brogan1</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>_madisonmcgillem</t>
+          <t>_.snehaghosh._</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>finleyyparker</t>
+          <t>dannielle__le</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>williamjcoram</t>
+          <t>forrrestbacon</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>shreyanarayan_</t>
+          <t>lacyhuckelby_6</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>shell_sinal</t>
+          <t>chloe_edmondsonn</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>riley_ferris22</t>
+          <t>tanvi_kundur</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>kennakelsey</t>
+          <t>landriestiver</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>geffreylanghout</t>
+          <t>gage.larson</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>sydneyvernier</t>
+          <t>annabryson17</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>a.stergar</t>
+          <t>kpatel1104</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,840 +4338,10 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>amber.huaa</t>
+          <t>cole_russo</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>charlotteaadams</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>emilyasiefker</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>david_schenkel1</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>_priyasprenger</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>maggieboncosky</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>haf3rt3p3n</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>ajware_</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>aarthiram17</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>livvtorress</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>cannedwill</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>felix_mucee</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>turnerjmore</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>imuhlie</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>albrtkang</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>debbiebronstein</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>yashdandamudi_</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>brady_wright_22</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>alikenkel</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>a.trbl94</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>pauline.dimeo</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>graydonmoore</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>erikmaskin</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>matthewhimsel</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>laney.conner</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>jack.sparks16</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>atharv_neema</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>samantha_renee_smith</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>jruszy</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>lemgruberalexandre</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>calsefcik</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>graceschuetter</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>avakayser_</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>allie_schnarr</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>lil.y.myers</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>brookelawhead</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>tithhiii</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>oliviamineroff</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>harlee_mcc</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>daelynndiver</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>jennaaa.miller</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>ssanya.11</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>chloe_edmondsonn</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>bryce.harder3</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>sri_gottipolu</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>_spencerkim</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>kennedy.russell</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>hoosiera1vintage</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>aj.grieco</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>jakemarcotte1</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>tess.obryan</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>riyasn.06</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>kennediilynn</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>johnparkinson134</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>kayleecolip</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>john_.r._r</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>sarah_mccormick03</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>connor.clausen</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>meganxhurt</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>griffk123</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>rufindiana</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>sophiaakeller</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>alexander_tls47</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>samantham.20</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>abbieparrishhh</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>kyliemoore._</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>skylarlondo</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>riley_ragland5</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>mmauck5</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>isharzi</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>bri.hamblen</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>abbyroder</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>bradydack</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>corbenlashley</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>conner_snodgrass</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>ellierickettss</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>audreyssharpe</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>natalieb_51</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>landyn.clouse</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>kavyamehta021</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>rylee.laritz</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>victor_giller</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>adryanawarner</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>_.isabelle.hamilton._</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
         <v>0</v>
       </c>
     </row>
